--- a/Input_Data/Distributie_parameters_surgery_duration.xlsx
+++ b/Input_Data/Distributie_parameters_surgery_duration.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>KS P-value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Shape_surgery_duration</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Scale_surgery_duration</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Group_number</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Duration_Surgery</t>
         </is>
@@ -473,218 +478,239 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3.242917801519639</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.3344891799842807</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>185.22165458178299</t>
+          <t>4.236809793310834</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>69.05772922230062</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>CAS</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>73.58666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.370778097978992</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.7651861259879094</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>133.59516536286125</t>
+          <t>4.866780795165905</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>109.21479436862495</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>CAS</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>118.4897959183673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.894335824713217</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7653140551988495</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.017025909488424</t>
+          <t>8.642639104418446</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
+          <t>1152.2552337387538</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CAS</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>44.13235294117647</v>
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>150.1666666666667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2.074888659744336</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7472390910934841</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>58.00998315215466</t>
+          <t>0.6539783856915823</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>49.558821089581805</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DER</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>51.13513513513514</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>62.14285714285715</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2.9550475311654</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4303373672204452</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.00987536568346</t>
+          <t>4.270866423159705</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>38.62858258167108</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>81.01417322834645</v>
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>44.13235294117647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3.2729280739454465</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4667674470764698</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>176.40597033978935</t>
+          <t>4.1062390532689665</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>44.75675857150178</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>158.96875</v>
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>51.13513513513514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1.6715132260519614</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7448527739958145</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>55.41401002926476</t>
+          <t>7.681114410967351</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>434.9845722303504</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>GAS</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>49.44249512670565</v>
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>64.46616541353383</v>
       </c>
     </row>
     <row r="9">
@@ -694,90 +720,99 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.602063989711843</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.09155448908296615</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>76.42331058926851</t>
+          <t>3.519952295174103</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>59.793009410301934</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>68.3516355140187</v>
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>54.15476190476191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2.1302037776767078</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1449417517736201</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>132.85433803671017</t>
+          <t>6.241202478966537</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>76.65515489469274</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>117.426735218509</v>
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>81.01417322834645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>17</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3.1209057122868993</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5327885224566857</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>216.38855256154523</t>
+          <t>6.06536181019025</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>681.7288138065188</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>194.76</v>
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>132.3157894736842</v>
       </c>
     </row>
     <row r="12">
@@ -787,183 +822,201 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>3.139985984982547</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2208947921786478</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>468.1566363995803</t>
+          <t>5.613337228963088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KIC</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>339.0271534138294</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>202.2086956521739</v>
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>71.96047430830039</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1.613754544721875</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7013286135360244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>41.82090602899027</t>
+          <t>8.421798602770426</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>11.877906139957618</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>37.28518057285181</v>
+        <v>2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100.0333333333333</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2.2011591877917027</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6541845614184005</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>79.33269386663534</t>
+          <t>6.523587396220403</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>150.59265617254226</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>KAA</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>70.4127198917456</v>
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>158.96875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7.175989646748056</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.294456379418206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>822.809626487795</t>
+          <t>4.489323890230587</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>44.74348362016917</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>130.9754098360656</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>49.44249512670565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>9.33331736513582</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6331615622869848</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2402.8541815139715</t>
+          <t>5.691899990646201</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>64.02985990209187</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>285.7213930348259</v>
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>68.3516355140187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>23</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.285881895383056</t>
-        </is>
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4552376534362871</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>67.53472469692598</t>
+          <t>5.951092517199922</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KNO</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>583.0855620239896</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>154.376404494382</v>
+        <v>3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>117.426735218509</v>
       </c>
     </row>
     <row r="18">
@@ -973,183 +1026,201 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>4.638809327289344</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3096633230178325</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>14.127001760333394</t>
+          <t>11.663125136948972</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>LOS</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>16.698783363216872</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>65.53246753246754</v>
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>194.76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8.465131103752473</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6304349060414349</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>740.6970346281457</t>
+          <t>3.1967427986890486</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>181.78544286533145</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>KIC</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>97.39130434782609</v>
+        <v>5</v>
+      </c>
+      <c r="H19" t="n">
+        <v>202.2086956521739</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3.6972614028858626</t>
-        </is>
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.4098237224193121</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>149.1920153707188</t>
+          <t>5.547880323581048</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>167.44430082158564</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>135.8121212121212</v>
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>37.28518057285181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1.8862194905841876</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.352014468359771</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>48.907278787539</t>
+          <t>4.724789329152301</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NEU</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>64.45343052709124</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>43.12244897959184</v>
+        <v>2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>70.4127198917456</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>4.188745364145552</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.630798819415973</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>285.38868899255493</t>
+          <t>5.141024508801475</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>124.50836138128278</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>85.53343701399689</v>
+        <v>3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>130.9754098360656</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>4.942207199144254</t>
-        </is>
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.06793081832698766</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>541.3591850341392</t>
+          <t>5.1983264063381345</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>277.10775423441817</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>131.8022813688213</v>
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>285.7213930348259</v>
       </c>
     </row>
     <row r="24">
@@ -1159,245 +1230,269 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>35</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5.151133053585009</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1449024919973341</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>934.848371701916</t>
+          <t>2.2265938723043144</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
+          <t>213.66532827365808</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>KNO</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>218.8566037735849</v>
+        <v>5</v>
+      </c>
+      <c r="H24" t="n">
+        <v>154.376404494382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9.853902973975943</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5689895489592474</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>4102.6661268227</t>
+          <t>4.0258803388530815</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ORTR</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>57.12901363877812</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>1</v>
       </c>
-      <c r="G25" t="n">
-        <v>455.2361111111111</v>
+      <c r="H25" t="n">
+        <v>65.53246753246754</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>37</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2.12184236811036</t>
-        </is>
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2573082664610747</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>140.35139815052025</t>
+          <t>5.873788613979544</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>PLCH</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>94.90227762372874</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>124.0281690140845</v>
+      <c r="H26" t="n">
+        <v>97.39130434782609</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1.731491070880148</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9342364119024886</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>80.55137308473951</t>
+          <t>7.45369607154165</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>131.80759129555446</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>71.54313099041534</v>
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>135.8121212121212</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>39</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2.4830004906160474</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8385245318385437</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>126.45917575466012</t>
+          <t>2.7415112683400533</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>222.52812970062485</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>112.1546052631579</v>
+        <v>3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>277.7291666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>2.2729108963605498</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.08850380854529394</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>181.3163152131175</t>
+          <t>2.135145419887259</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>417.8927703807027</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NEC</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>160.7260869565217</v>
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>320.6418918918919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3.273856293167944</t>
-        </is>
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6895437912860843</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>230.31369918426685</t>
+          <t>4.533623651450654</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>36.87627817042228</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>206.9849246231156</v>
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>43.12244897959184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>42</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5.5241842395634535</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.8308410836721922</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1247.8491206291299</t>
+          <t>4.574813670776697</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PLCO</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>5</v>
+          <t>39.974655204740706</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>268.7939698492463</v>
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>43.08045977011494</v>
       </c>
     </row>
     <row r="32">
@@ -1407,557 +1502,661 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>6.2131687441396055</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2151854842324021</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>273.2386066688568</t>
+          <t>10.431100431660933</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1</v>
+          <t>949.2164930579017</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>OOG</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>49.99634814363969</v>
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>99.98895027624309</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>44</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>3.2117181596888944</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1725050247294152</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>113.28069983004613</t>
+          <t>4.1576356913903005</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RON</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2</v>
+          <t>78.55485248980438</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>102.5578512396694</v>
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>85.53343701399689</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.749814882035571</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6473563844980974</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>63.6624049293563</t>
+          <t>4.644298817350471</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
+          <t>124.40924005516037</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>56.29471544715447</v>
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>131.8022813688213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>3.315490140913549</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.3520976205274307</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>101.74705241233752</t>
+          <t>6.598910923197314</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>1036.051604454756</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>91.81664098613251</v>
+        <v>3</v>
+      </c>
+      <c r="H35" t="n">
+        <v>182.968253968254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>6.430444387955811</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9956458351072337</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>967.3260969508956</t>
+          <t>4.389780491191054</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
+          <t>202.93947187445855</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ORTO</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>4</v>
       </c>
-      <c r="G36" t="n">
-        <v>176.6172839506173</v>
+      <c r="H36" t="n">
+        <v>218.8566037735849</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3552976315551507</v>
-      </c>
-      <c r="D37" t="n">
-        <v>141.3491380199911</v>
+        <v>0.05291734223078981</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.082890696551305</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>CAS</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
+          <t>498.87647108626686</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>ORTR</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>150.1666666666667</v>
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>455.2361111111111</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6034623897149903</v>
-      </c>
-      <c r="D38" t="n">
-        <v>50.43702795007789</v>
+        <v>0.10470882882892</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.955444325784395</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>DER</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>499.3570809796</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>PLCH</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>1</v>
       </c>
-      <c r="G38" t="n">
-        <v>62.14285714285715</v>
+      <c r="H38" t="n">
+        <v>124.0281690140845</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2702124153873295</v>
-      </c>
-      <c r="D39" t="n">
-        <v>51.76699309664851</v>
+        <v>0.4124361930156288</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.270717925526956</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>16.752015056482048</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="n">
-        <v>54.15476190476191</v>
+      <c r="H39" t="n">
+        <v>71.54313099041534</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3682250601902156</v>
-      </c>
-      <c r="D40" t="n">
-        <v>119.7442329666727</v>
+        <v>0.9367281260517154</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.535536157621527</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>GYN</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>3</v>
+          <t>103.301132389527</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>132.3157894736842</v>
+        <v>2</v>
+      </c>
+      <c r="H40" t="n">
+        <v>112.1546052631579</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3587532744920105</v>
-      </c>
-      <c r="D41" t="n">
-        <v>88.88302615200895</v>
+        <v>0.7756694522717729</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.869976354740974</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>147.0008968337034</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>100.0333333333333</v>
+        <v>3</v>
+      </c>
+      <c r="H41" t="n">
+        <v>160.7260869565217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>0.384746389609757</v>
-      </c>
-      <c r="D42" t="n">
-        <v>41.07628719657178</v>
+        <v>0.2751464004438607</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.04414662009237</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
+          <t>1882.1719909329584</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>43.08045977011494</v>
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>206.9849246231156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3769670872618081</v>
-      </c>
-      <c r="D43" t="n">
-        <v>169.9445962795452</v>
+        <v>0.4410464611321041</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.360031189887202</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>ORTO</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>42.26299554578339</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PLCO</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>182.968253968254</v>
+        <v>5</v>
+      </c>
+      <c r="H43" t="n">
+        <v>268.7939698492463</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>lognorm</t>
+          <t>log-logistic</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2625758872385899</v>
-      </c>
-      <c r="D44" t="n">
-        <v>116.6516118962836</v>
+        <v>0.9833450413767406</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.160878537353325</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
+          <t>137.99323573398414</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TAN</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>119.5130434782609</v>
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>144.2289156626506</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>8.382430826255705</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7.773310274711252</v>
+        <v>0.09998333634971501</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>11.029817186892515</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>GAS</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>3</v>
+          <t>926.795473608704</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>64.46616541353383</v>
+        <v>2</v>
+      </c>
+      <c r="H45" t="n">
+        <v>91.81664098613251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C46" t="n">
-        <v>6.150773511416018</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.53968477129688</v>
+        <v>0.9033693747752183</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.605072350071158</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KAA</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
+          <t>1628.0896780109067</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>71.96047430830039</v>
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>119.5130434782609</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>pearsonV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C47" t="n">
-        <v>11.04834597445282</v>
-      </c>
-      <c r="D47" t="n">
-        <v>8.647166323973957</v>
+        <v>0.08029043172952255</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.465899243242438</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OOG</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
+          <t>980.2221003610014</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>99.98895027624309</v>
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>176.0931677018634</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>weibull</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C48" t="n">
-        <v>2.8305247445662</v>
+        <v>0.003027435332523021</v>
       </c>
       <c r="D48" t="n">
-        <v>222.053434258851</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
+        <v>4.340449493456965</v>
+      </c>
+      <c r="E48" t="n">
+        <v>55.0952287582261</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>277.7291666666667</v>
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>49.99634814363969</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>log-logistic</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C49" t="n">
-        <v>5.330390311617641</v>
+        <v>0.000111775591773145</v>
       </c>
       <c r="D49" t="n">
-        <v>171.0278362369958</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>URO</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
+        <v>0.2669847985209338</v>
+      </c>
+      <c r="E49" t="n">
+        <v>98.99789909380246</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>176.0931677018634</v>
+        <v>2</v>
+      </c>
+      <c r="H49" t="n">
+        <v>102.5578512396694</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>weibull</t>
+          <t>lognorm</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C50" t="n">
-        <v>1.591975746026975</v>
+        <v>5.307609323129478e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>359.5551342018973</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>NEC</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
+        <v>0.4566651102877543</v>
+      </c>
+      <c r="E50" t="n">
+        <v>50.41036660123115</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>320.6418918918919</v>
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>56.29471544715447</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>pearsonV</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>16.36424285169578</v>
+        <v>8.272304486775923e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>2206.080220489654</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>TAN</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+        <v>6.854349184996106</v>
+      </c>
+      <c r="E51" t="n">
+        <v>25.68296350955455</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>URO</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>144.2289156626506</v>
+        <v>4</v>
+      </c>
+      <c r="H51" t="n">
+        <v>176.6172839506173</v>
       </c>
     </row>
   </sheetData>
